--- a/Code/Results/Cases/Case_4_193/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_193/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.001708939111609</v>
+        <v>0.3210057619961617</v>
       </c>
       <c r="C2">
-        <v>0.1998772998829565</v>
+        <v>0.06583081443092453</v>
       </c>
       <c r="D2">
-        <v>0.2015467792455183</v>
+        <v>0.07913462391887549</v>
       </c>
       <c r="E2">
-        <v>1.398794158019157</v>
+        <v>0.4192626335607201</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3148012187289027</v>
+        <v>0.4015654146335876</v>
       </c>
       <c r="H2">
-        <v>0.2521061528733668</v>
+        <v>0.5554557990681275</v>
       </c>
       <c r="I2">
-        <v>0.2029878620687064</v>
+        <v>0.4181279530127604</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.146140182568473</v>
+        <v>0.3509234277196356</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5597354985913974</v>
+        <v>1.137998050069106</v>
       </c>
       <c r="O2">
-        <v>1.145213953479129</v>
+        <v>1.859820966578127</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8720542582027235</v>
+        <v>0.2817881569998804</v>
       </c>
       <c r="C3">
-        <v>0.1760762769881268</v>
+        <v>0.05844957747930835</v>
       </c>
       <c r="D3">
-        <v>0.1748855160716687</v>
+        <v>0.07170496381543501</v>
       </c>
       <c r="E3">
-        <v>1.202825043709964</v>
+        <v>0.3658471276621782</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2933289495597862</v>
+        <v>0.3998811745049053</v>
       </c>
       <c r="H3">
-        <v>0.2479060720296644</v>
+        <v>0.5583478614497039</v>
       </c>
       <c r="I3">
-        <v>0.2021456687776428</v>
+        <v>0.4214918617449577</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9996209287521651</v>
+        <v>0.3062570669490867</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5913658355187881</v>
+        <v>1.151183850461116</v>
       </c>
       <c r="O3">
-        <v>1.090529246060086</v>
+        <v>1.862040228453822</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7925513636616017</v>
+        <v>0.2576824005849971</v>
       </c>
       <c r="C4">
-        <v>0.1614886858261855</v>
+        <v>0.05389144221986442</v>
       </c>
       <c r="D4">
-        <v>0.1586533157292678</v>
+        <v>0.06717585165084472</v>
       </c>
       <c r="E4">
-        <v>1.08445304700092</v>
+        <v>0.3331283927742703</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2809516379119188</v>
+        <v>0.3991589699901326</v>
       </c>
       <c r="H4">
-        <v>0.2458238969292879</v>
+        <v>0.5603905797079562</v>
       </c>
       <c r="I4">
-        <v>0.202157350861615</v>
+        <v>0.4238079520904456</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9097775343717842</v>
+        <v>0.2787679261174674</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.611657859888707</v>
+        <v>1.159702404897075</v>
       </c>
       <c r="O4">
-        <v>1.059693620416979</v>
+        <v>1.864613814121697</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7601677502448183</v>
+        <v>0.2478530525505391</v>
       </c>
       <c r="C5">
-        <v>0.1555475262222217</v>
+        <v>0.05202745296656985</v>
       </c>
       <c r="D5">
-        <v>0.1520690131321203</v>
+        <v>0.0653384569556863</v>
       </c>
       <c r="E5">
-        <v>1.036633520900068</v>
+        <v>0.3198135427983715</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.276096906794713</v>
+        <v>0.3989429235999182</v>
       </c>
       <c r="H5">
-        <v>0.2450943174982356</v>
+        <v>0.5612901380011124</v>
       </c>
       <c r="I5">
-        <v>0.2022885209789749</v>
+        <v>0.4248147362737527</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8731808888482533</v>
+        <v>0.2675502918134214</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6201399734423045</v>
+        <v>1.16327997456812</v>
       </c>
       <c r="O5">
-        <v>1.047775442372853</v>
+        <v>1.865966688780901</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.754791010649484</v>
+        <v>0.2462205451095372</v>
       </c>
       <c r="C6">
-        <v>0.1545611168593553</v>
+        <v>0.05171754661849093</v>
       </c>
       <c r="D6">
-        <v>0.150977414307377</v>
+        <v>0.06503385831226183</v>
       </c>
       <c r="E6">
-        <v>1.028716334748253</v>
+        <v>0.3176036846932391</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2753018179638786</v>
+        <v>0.3989117706286365</v>
       </c>
       <c r="H6">
-        <v>0.2449801858203813</v>
+        <v>0.5614435637061135</v>
       </c>
       <c r="I6">
-        <v>0.2023177513773291</v>
+        <v>0.4249857126353263</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.86710454850882</v>
+        <v>0.2656866844114063</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6215611130003413</v>
+        <v>1.163880440006288</v>
       </c>
       <c r="O6">
-        <v>1.045834377279249</v>
+        <v>1.866209689312626</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7921145837948984</v>
+        <v>0.2575498624480588</v>
       </c>
       <c r="C7">
-        <v>0.1614085515860779</v>
+        <v>0.05386633013331732</v>
       </c>
       <c r="D7">
-        <v>0.1585643996619126</v>
+        <v>0.06715103844418024</v>
       </c>
       <c r="E7">
-        <v>1.083806536431496</v>
+        <v>0.3329487518788028</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2808854171491646</v>
+        <v>0.3991557396876857</v>
       </c>
       <c r="H7">
-        <v>0.2458135836958775</v>
+        <v>0.5604024396448608</v>
       </c>
       <c r="I7">
-        <v>0.2021586164514559</v>
+        <v>0.4238212751059756</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.909283936401124</v>
+        <v>0.2786167036745724</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6117713981588597</v>
+        <v>1.159750223337848</v>
       </c>
       <c r="O7">
-        <v>1.059530318977053</v>
+        <v>1.864630828618886</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9569745269425312</v>
+        <v>0.3074892005877814</v>
       </c>
       <c r="C8">
-        <v>0.1916632256547359</v>
+        <v>0.06329118281389867</v>
       </c>
       <c r="D8">
-        <v>0.1923227274192669</v>
+        <v>0.07656609704184802</v>
       </c>
       <c r="E8">
-        <v>1.330772555975997</v>
+        <v>0.4008277555269757</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3072216186721022</v>
+        <v>0.4009198391836151</v>
       </c>
       <c r="H8">
-        <v>0.2505511731066434</v>
+        <v>0.556397569500561</v>
       </c>
       <c r="I8">
-        <v>0.2025836629046935</v>
+        <v>0.4192357690242545</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.095586108216679</v>
+        <v>0.3355359739671542</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5704571619824197</v>
+        <v>1.142456822934324</v>
       </c>
       <c r="O8">
-        <v>1.125763936880816</v>
+        <v>1.860334597879159</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.28170381136789</v>
+        <v>0.4051976049604491</v>
       </c>
       <c r="C9">
-        <v>0.2513616646383809</v>
+        <v>0.08156622943380398</v>
       </c>
       <c r="D9">
-        <v>0.2598221189286107</v>
+        <v>0.09528855938839342</v>
       </c>
       <c r="E9">
-        <v>1.834211302219174</v>
+        <v>0.5346341580031009</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3659313641887394</v>
+        <v>0.4068631249968746</v>
       </c>
       <c r="H9">
-        <v>0.2640706608623447</v>
+        <v>0.5506627488847897</v>
       </c>
       <c r="I9">
-        <v>0.2079276411098263</v>
+        <v>0.4122354427053025</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.462617907887989</v>
+        <v>0.4466332542195914</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4966360772901819</v>
+        <v>1.111897167526845</v>
       </c>
       <c r="O9">
-        <v>1.279407106903165</v>
+        <v>1.861537947011016</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.522084950398067</v>
+        <v>0.4768334492692361</v>
       </c>
       <c r="C10">
-        <v>0.2956943771302605</v>
+        <v>0.09486720436534313</v>
       </c>
       <c r="D10">
-        <v>0.3105134794079589</v>
+        <v>0.1092034622807034</v>
       </c>
       <c r="E10">
-        <v>2.221381693237575</v>
+        <v>0.6334747690240192</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4143660293984652</v>
+        <v>0.4127574535367557</v>
       </c>
       <c r="H10">
-        <v>0.2770126937075759</v>
+        <v>0.5477419707256672</v>
       </c>
       <c r="I10">
-        <v>0.215072076061535</v>
+        <v>0.408311175894827</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.734449717417874</v>
+        <v>0.5279265294468587</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4472065384054531</v>
+        <v>1.091489476366649</v>
       </c>
       <c r="O10">
-        <v>1.409784420842954</v>
+        <v>1.868322850938313</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.632058690154338</v>
+        <v>0.5093870392788062</v>
       </c>
       <c r="C11">
-        <v>0.3160266076014295</v>
+        <v>0.1008910610760836</v>
       </c>
       <c r="D11">
-        <v>0.3338867364502391</v>
+        <v>0.1155687003189456</v>
       </c>
       <c r="E11">
-        <v>2.40269762982075</v>
+        <v>0.6785797199324151</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4377926582350682</v>
+        <v>0.4157736793962101</v>
       </c>
       <c r="H11">
-        <v>0.2836584717693853</v>
+        <v>0.5466941654632222</v>
       </c>
       <c r="I11">
-        <v>0.2191342507002787</v>
+        <v>0.4067916082161993</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.858865744307053</v>
+        <v>0.5648352243764236</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4258641836692014</v>
+        <v>1.082649590442742</v>
       </c>
       <c r="O11">
-        <v>1.473626962390512</v>
+        <v>1.872697764035024</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.67381280406417</v>
+        <v>0.5217089699976611</v>
       </c>
       <c r="C12">
-        <v>0.3237552877426424</v>
+        <v>0.1031682681253585</v>
       </c>
       <c r="D12">
-        <v>0.3427892128738108</v>
+        <v>0.1179841176539895</v>
       </c>
       <c r="E12">
-        <v>2.472238710503177</v>
+        <v>0.6956819536012802</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4468861406539588</v>
+        <v>0.416964218192021</v>
       </c>
       <c r="H12">
-        <v>0.2862936758958909</v>
+        <v>0.5463377945005163</v>
       </c>
       <c r="I12">
-        <v>0.2207995948305133</v>
+        <v>0.4062544624496525</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.906113223497016</v>
+        <v>0.5788008719985385</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4179560435340015</v>
+        <v>1.079366001163599</v>
       </c>
       <c r="O12">
-        <v>1.498521161287641</v>
+        <v>1.8745402102154</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.664815105324664</v>
+        <v>0.5190554706768467</v>
       </c>
       <c r="C13">
-        <v>0.3220893797953579</v>
+        <v>0.102678004780671</v>
       </c>
       <c r="D13">
-        <v>0.3408695053507387</v>
+        <v>0.1174636907006175</v>
       </c>
       <c r="E13">
-        <v>2.457220313881294</v>
+        <v>0.6919976794771259</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4449174381077796</v>
+        <v>0.416705660272811</v>
       </c>
       <c r="H13">
-        <v>0.2857207022564694</v>
+        <v>0.5464127477664391</v>
       </c>
       <c r="I13">
-        <v>0.2204351075652156</v>
+        <v>0.4063684424077145</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.895931261306032</v>
+        <v>0.57579361175965</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4196513193903151</v>
+        <v>1.080070338256949</v>
       </c>
       <c r="O13">
-        <v>1.493126675872389</v>
+        <v>1.874135136889606</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.635491512606222</v>
+        <v>0.5104008833412195</v>
       </c>
       <c r="C14">
-        <v>0.3166618294356454</v>
+        <v>0.1010784865925132</v>
       </c>
       <c r="D14">
-        <v>0.3346180770525535</v>
+        <v>0.1157673173435683</v>
       </c>
       <c r="E14">
-        <v>2.408400339447923</v>
+        <v>0.6799862817011757</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4385361961007419</v>
+        <v>0.4158706553612461</v>
       </c>
       <c r="H14">
-        <v>0.2838728372185102</v>
+        <v>0.5466640366066429</v>
       </c>
       <c r="I14">
-        <v>0.2192686504418617</v>
+        <v>0.4067466491841145</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.862749990311102</v>
+        <v>0.5659844075042031</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.425210038105142</v>
+        <v>1.082378166762725</v>
       </c>
       <c r="O14">
-        <v>1.475660222953081</v>
+        <v>1.872845617455823</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.617544838382116</v>
+        <v>0.5050989787829394</v>
       </c>
       <c r="C15">
-        <v>0.3133412899009329</v>
+        <v>0.1000982268784014</v>
       </c>
       <c r="D15">
-        <v>0.3307958075361626</v>
+        <v>0.1147288950195531</v>
       </c>
       <c r="E15">
-        <v>2.378615645475719</v>
+        <v>0.6726318613147555</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4346571390595813</v>
+        <v>0.4153654947018168</v>
       </c>
       <c r="H15">
-        <v>0.2827567080418874</v>
+        <v>0.5468232215106354</v>
       </c>
       <c r="I15">
-        <v>0.2185710327897006</v>
+        <v>0.4069832997710954</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.842443708088751</v>
+        <v>0.5599745551974138</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4286378297620832</v>
+        <v>1.083800100433917</v>
       </c>
       <c r="O15">
-        <v>1.465057149626062</v>
+        <v>1.87207995569787</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.514912101957577</v>
+        <v>0.474705267789119</v>
       </c>
       <c r="C16">
-        <v>0.2943694025524621</v>
+        <v>0.09447298801630666</v>
       </c>
       <c r="D16">
-        <v>0.3089928307422554</v>
+        <v>0.1087881860797211</v>
       </c>
       <c r="E16">
-        <v>2.209647834855829</v>
+        <v>0.6305300428183358</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4128649169667966</v>
+        <v>0.4125670920681017</v>
       </c>
       <c r="H16">
-        <v>0.2765944337191968</v>
+        <v>0.5478161009098557</v>
       </c>
       <c r="I16">
-        <v>0.2148238069314701</v>
+        <v>0.408415835339305</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.726336162861315</v>
+        <v>0.5255129658966382</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4486251008413937</v>
+        <v>1.092076118668656</v>
       </c>
       <c r="O16">
-        <v>1.405708938021263</v>
+        <v>1.868062908135869</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.452123399635042</v>
+        <v>0.4560506464667355</v>
       </c>
       <c r="C17">
-        <v>0.2827768244323323</v>
+        <v>0.09101518779843332</v>
       </c>
       <c r="D17">
-        <v>0.2957021423261921</v>
+        <v>0.1051527658781737</v>
       </c>
       <c r="E17">
-        <v>2.107411585698799</v>
+        <v>0.6047393872206044</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3998680171783491</v>
+        <v>0.4109362766112383</v>
       </c>
       <c r="H17">
-        <v>0.2730148489784909</v>
+        <v>0.5484971530314198</v>
       </c>
       <c r="I17">
-        <v>0.2127400777518922</v>
+        <v>0.409362739115565</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.655319086678929</v>
+        <v>0.5043530817621331</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4611859122088742</v>
+        <v>1.097266882274919</v>
       </c>
       <c r="O17">
-        <v>1.370507358218134</v>
+        <v>1.865928922730859</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.416066362520269</v>
+        <v>0.4453178410987562</v>
       </c>
       <c r="C18">
-        <v>0.2761242500929484</v>
+        <v>0.08902383016274484</v>
       </c>
       <c r="D18">
-        <v>0.2880867839918437</v>
+        <v>0.1030650909739279</v>
       </c>
       <c r="E18">
-        <v>2.049087602750134</v>
+        <v>0.5899185425350879</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3925222808843358</v>
+        <v>0.4100297815494827</v>
       </c>
       <c r="H18">
-        <v>0.2710267314828769</v>
+        <v>0.5489153118270877</v>
       </c>
       <c r="I18">
-        <v>0.2116173486359578</v>
+        <v>0.4099323674316473</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.614541708670743</v>
+        <v>0.4921757277098777</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4685175812985154</v>
+        <v>1.100294227809028</v>
       </c>
       <c r="O18">
-        <v>1.350682721145603</v>
+        <v>1.864822754279089</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.40386734629908</v>
+        <v>0.4416833709607317</v>
       </c>
       <c r="C19">
-        <v>0.2738742477147582</v>
+        <v>0.08834915866776782</v>
       </c>
       <c r="D19">
-        <v>0.2855131628691367</v>
+        <v>0.1023588117934366</v>
       </c>
       <c r="E19">
-        <v>2.029418637043534</v>
+        <v>0.5849026886857018</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3900567851445658</v>
+        <v>0.4097282629532231</v>
       </c>
       <c r="H19">
-        <v>0.2703654656422287</v>
+        <v>0.5490614329226418</v>
       </c>
       <c r="I19">
-        <v>0.2112499264338226</v>
+        <v>0.4101295239011371</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.600746454144939</v>
+        <v>0.4880515416024878</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.47101806683769</v>
+        <v>1.101326404056097</v>
       </c>
       <c r="O19">
-        <v>1.344041049461055</v>
+        <v>1.864469033524017</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.458801289302784</v>
+        <v>0.4580367937053893</v>
       </c>
       <c r="C20">
-        <v>0.2840092656033164</v>
+        <v>0.09138353788250697</v>
       </c>
       <c r="D20">
-        <v>0.2971139025089826</v>
+        <v>0.1055394189225609</v>
       </c>
       <c r="E20">
-        <v>2.118244248876252</v>
+        <v>0.6074834630451704</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4012379791598448</v>
+        <v>0.4111066173648794</v>
       </c>
       <c r="H20">
-        <v>0.2733885115027164</v>
+        <v>0.5484219177290015</v>
       </c>
       <c r="I20">
-        <v>0.2129539797552127</v>
+        <v>0.409259352133958</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.662871583104561</v>
+        <v>0.5066062897310246</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4598376506276107</v>
+        <v>1.096709994479404</v>
       </c>
       <c r="O20">
-        <v>1.374210448039236</v>
+        <v>1.866143537339354</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.644101425050962</v>
+        <v>0.5129430964077528</v>
       </c>
       <c r="C21">
-        <v>0.3182551898768793</v>
+        <v>0.1015484099287391</v>
       </c>
       <c r="D21">
-        <v>0.336452820647267</v>
+        <v>0.1162654468073612</v>
       </c>
       <c r="E21">
-        <v>2.422714897398791</v>
+        <v>0.6835137116397902</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.440404303097722</v>
+        <v>0.4161146024372187</v>
       </c>
       <c r="H21">
-        <v>0.2844123012413036</v>
+        <v>0.5465891300906378</v>
       </c>
       <c r="I21">
-        <v>0.2196077316437268</v>
+        <v>0.4066345210296411</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.87249229254428</v>
+        <v>0.5688659078102489</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4235725143520046</v>
+        <v>1.081698567121339</v>
       </c>
       <c r="O21">
-        <v>1.480770486523681</v>
+        <v>1.873219335163952</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.765854274081221</v>
+        <v>0.5487957757808886</v>
       </c>
       <c r="C22">
-        <v>0.3408107193176306</v>
+        <v>0.1081690100076571</v>
       </c>
       <c r="D22">
-        <v>0.3624668034802028</v>
+        <v>0.1233048862572446</v>
       </c>
       <c r="E22">
-        <v>2.62691171382086</v>
+        <v>0.7333326544318766</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4673092758458353</v>
+        <v>0.4196695822985674</v>
       </c>
       <c r="H22">
-        <v>0.2923132777720667</v>
+        <v>0.5456268489961644</v>
       </c>
       <c r="I22">
-        <v>0.2247025274730099</v>
+        <v>0.4051422175224708</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.010284867168508</v>
+        <v>0.6094925453009239</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.400888733699059</v>
+        <v>1.072260135428284</v>
       </c>
       <c r="O22">
-        <v>1.554636332981687</v>
+        <v>1.878926765900189</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.700806105278218</v>
+        <v>0.5296636074293133</v>
       </c>
       <c r="C23">
-        <v>0.328754504975592</v>
+        <v>0.1046375640716803</v>
       </c>
       <c r="D23">
-        <v>0.3485525962457672</v>
+        <v>0.1195451296106</v>
       </c>
       <c r="E23">
-        <v>2.517402813370396</v>
+        <v>0.7067310425767346</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4528221771861496</v>
+        <v>0.417746354010859</v>
       </c>
       <c r="H23">
-        <v>0.2880292925137127</v>
+        <v>0.5461188763742939</v>
       </c>
       <c r="I23">
-        <v>0.2219114271720457</v>
+        <v>0.405918238125107</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.936660967470175</v>
+        <v>0.5878153363311753</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4128991135768487</v>
+        <v>1.077263500650087</v>
       </c>
       <c r="O23">
-        <v>1.514802811013567</v>
+        <v>1.875781347768452</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.455782089079293</v>
+        <v>0.4571388814648856</v>
       </c>
       <c r="C24">
-        <v>0.283452041508923</v>
+        <v>0.09121701746684607</v>
       </c>
       <c r="D24">
-        <v>0.296475566363128</v>
+        <v>0.1053646056772379</v>
       </c>
       <c r="E24">
-        <v>2.113345400811426</v>
+        <v>0.6062428461189882</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4006182274177661</v>
+        <v>0.4110295095037344</v>
       </c>
       <c r="H24">
-        <v>0.2732193618709857</v>
+        <v>0.5484558487100486</v>
       </c>
       <c r="I24">
-        <v>0.2128570410892117</v>
+        <v>0.409306014769605</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.659456941572273</v>
+        <v>0.5055876525433405</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4604468568528155</v>
+        <v>1.096961629178749</v>
       </c>
       <c r="O24">
-        <v>1.372534999002227</v>
+        <v>1.86604613416452</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.193610799087025</v>
+        <v>0.3787902538665548</v>
       </c>
       <c r="C25">
-        <v>0.2351479711043396</v>
+        <v>0.07664445876912396</v>
       </c>
       <c r="D25">
-        <v>0.2413921406287045</v>
+        <v>0.09019571578306795</v>
       </c>
       <c r="E25">
-        <v>1.695423061696815</v>
+        <v>0.4983502696562567</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3491945090898412</v>
+        <v>0.4049879914126961</v>
       </c>
       <c r="H25">
-        <v>0.2599180135340475</v>
+        <v>0.5519872491312867</v>
       </c>
       <c r="I25">
-        <v>0.205952787216102</v>
+        <v>0.4139155030351027</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.363032642519102</v>
+        <v>0.4166355566712241</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5157947021366454</v>
+        <v>1.119805387275221</v>
       </c>
       <c r="O25">
-        <v>1.235002005905102</v>
+        <v>1.860178425091277</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_193/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_193/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3210057619961617</v>
+        <v>1.001708939111722</v>
       </c>
       <c r="C2">
-        <v>0.06583081443092453</v>
+        <v>0.1998772998832834</v>
       </c>
       <c r="D2">
-        <v>0.07913462391887549</v>
+        <v>0.2015467792454757</v>
       </c>
       <c r="E2">
-        <v>0.4192626335607201</v>
+        <v>1.398794158019129</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4015654146335876</v>
+        <v>0.3148012187289027</v>
       </c>
       <c r="H2">
-        <v>0.5554557990681275</v>
+        <v>0.2521061528733668</v>
       </c>
       <c r="I2">
-        <v>0.4181279530127604</v>
+        <v>0.2029878620687064</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3509234277196356</v>
+        <v>1.146140182568445</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.137998050069106</v>
+        <v>0.5597354985914009</v>
       </c>
       <c r="O2">
-        <v>1.859820966578127</v>
+        <v>1.1452139534791</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2817881569998804</v>
+        <v>0.8720542582026951</v>
       </c>
       <c r="C3">
-        <v>0.05844957747930835</v>
+        <v>0.1760762769881268</v>
       </c>
       <c r="D3">
-        <v>0.07170496381543501</v>
+        <v>0.1748855160714982</v>
       </c>
       <c r="E3">
-        <v>0.3658471276621782</v>
+        <v>1.20282504370995</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3998811745049053</v>
+        <v>0.2933289495596654</v>
       </c>
       <c r="H3">
-        <v>0.5583478614497039</v>
+        <v>0.2479060720296573</v>
       </c>
       <c r="I3">
-        <v>0.4214918617449577</v>
+        <v>0.2021456687776393</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3062570669490867</v>
+        <v>0.9996209287520514</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.151183850461116</v>
+        <v>0.5913658355187792</v>
       </c>
       <c r="O3">
-        <v>1.862040228453822</v>
+        <v>1.090529246060086</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2576824005849971</v>
+        <v>0.7925513636613744</v>
       </c>
       <c r="C4">
-        <v>0.05389144221986442</v>
+        <v>0.1614886858262139</v>
       </c>
       <c r="D4">
-        <v>0.06717585165084472</v>
+        <v>0.1586533157294099</v>
       </c>
       <c r="E4">
-        <v>0.3331283927742703</v>
+        <v>1.084453047000935</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3991589699901326</v>
+        <v>0.2809516379119827</v>
       </c>
       <c r="H4">
-        <v>0.5603905797079562</v>
+        <v>0.2458238969291955</v>
       </c>
       <c r="I4">
-        <v>0.4238079520904456</v>
+        <v>0.2021573508616328</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2787679261174674</v>
+        <v>0.9097775343718126</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.159702404897075</v>
+        <v>0.6116578598887621</v>
       </c>
       <c r="O4">
-        <v>1.864613814121697</v>
+        <v>1.059693620417022</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2478530525505391</v>
+        <v>0.7601677502447899</v>
       </c>
       <c r="C5">
-        <v>0.05202745296656985</v>
+        <v>0.1555475262222359</v>
       </c>
       <c r="D5">
-        <v>0.0653384569556863</v>
+        <v>0.1520690131318787</v>
       </c>
       <c r="E5">
-        <v>0.3198135427983715</v>
+        <v>1.036633520900068</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3989429235999182</v>
+        <v>0.2760969067947769</v>
       </c>
       <c r="H5">
-        <v>0.5612901380011124</v>
+        <v>0.2450943174982356</v>
       </c>
       <c r="I5">
-        <v>0.4248147362737527</v>
+        <v>0.2022885209789749</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2675502918134214</v>
+        <v>0.8731808888482817</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.16327997456812</v>
+        <v>0.6201399734423063</v>
       </c>
       <c r="O5">
-        <v>1.865966688780901</v>
+        <v>1.047775442372867</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2462205451095372</v>
+        <v>0.7547910106493418</v>
       </c>
       <c r="C6">
-        <v>0.05171754661849093</v>
+        <v>0.1545611168593268</v>
       </c>
       <c r="D6">
-        <v>0.06503385831226183</v>
+        <v>0.1509774143071212</v>
       </c>
       <c r="E6">
-        <v>0.3176036846932391</v>
+        <v>1.028716334748211</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3989117706286365</v>
+        <v>0.2753018179638786</v>
       </c>
       <c r="H6">
-        <v>0.5614435637061135</v>
+        <v>0.2449801858203813</v>
       </c>
       <c r="I6">
-        <v>0.4249857126353263</v>
+        <v>0.2023177513773291</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2656866844114063</v>
+        <v>0.86710454850882</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.163880440006288</v>
+        <v>0.6215611130003982</v>
       </c>
       <c r="O6">
-        <v>1.866209689312626</v>
+        <v>1.045834377279249</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2575498624480588</v>
+        <v>0.7921145837948984</v>
       </c>
       <c r="C7">
-        <v>0.05386633013331732</v>
+        <v>0.1614085515862911</v>
       </c>
       <c r="D7">
-        <v>0.06715103844418024</v>
+        <v>0.1585643996618984</v>
       </c>
       <c r="E7">
-        <v>0.3329487518788028</v>
+        <v>1.083806536431496</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3991557396876857</v>
+        <v>0.2808854171491859</v>
       </c>
       <c r="H7">
-        <v>0.5604024396448608</v>
+        <v>0.2458135836958775</v>
       </c>
       <c r="I7">
-        <v>0.4238212751059756</v>
+        <v>0.2021586164514595</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2786167036745724</v>
+        <v>0.9092839364010388</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.159750223337848</v>
+        <v>0.6117713981589255</v>
       </c>
       <c r="O7">
-        <v>1.864630828618886</v>
+        <v>1.059530318977139</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3074892005877814</v>
+        <v>0.9569745269425312</v>
       </c>
       <c r="C8">
-        <v>0.06329118281389867</v>
+        <v>0.1916632256545654</v>
       </c>
       <c r="D8">
-        <v>0.07656609704184802</v>
+        <v>0.1923227274192669</v>
       </c>
       <c r="E8">
-        <v>0.4008277555269757</v>
+        <v>1.330772555975997</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4009198391836151</v>
+        <v>0.3072216186720951</v>
       </c>
       <c r="H8">
-        <v>0.556397569500561</v>
+        <v>0.2505511731066576</v>
       </c>
       <c r="I8">
-        <v>0.4192357690242545</v>
+        <v>0.2025836629046971</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3355359739671542</v>
+        <v>1.095586108216622</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.142456822934324</v>
+        <v>0.5704571619824712</v>
       </c>
       <c r="O8">
-        <v>1.860334597879159</v>
+        <v>1.125763936880887</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4051976049604491</v>
+        <v>1.281703811367748</v>
       </c>
       <c r="C9">
-        <v>0.08156622943380398</v>
+        <v>0.2513616646385799</v>
       </c>
       <c r="D9">
-        <v>0.09528855938839342</v>
+        <v>0.2598221189283834</v>
       </c>
       <c r="E9">
-        <v>0.5346341580031009</v>
+        <v>1.834211302219174</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4068631249968746</v>
+        <v>0.3659313641886968</v>
       </c>
       <c r="H9">
-        <v>0.5506627488847897</v>
+        <v>0.2640706608623731</v>
       </c>
       <c r="I9">
-        <v>0.4122354427053025</v>
+        <v>0.2079276411098441</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4466332542195914</v>
+        <v>1.462617907887989</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.111897167526845</v>
+        <v>0.4966360772901837</v>
       </c>
       <c r="O9">
-        <v>1.861537947011016</v>
+        <v>1.279407106903165</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4768334492692361</v>
+        <v>1.522084950397954</v>
       </c>
       <c r="C10">
-        <v>0.09486720436534313</v>
+        <v>0.2956943771300331</v>
       </c>
       <c r="D10">
-        <v>0.1092034622807034</v>
+        <v>0.3105134794080726</v>
       </c>
       <c r="E10">
-        <v>0.6334747690240192</v>
+        <v>2.221381693237561</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4127574535367557</v>
+        <v>0.4143660293985221</v>
       </c>
       <c r="H10">
-        <v>0.5477419707256672</v>
+        <v>0.2770126937075759</v>
       </c>
       <c r="I10">
-        <v>0.408311175894827</v>
+        <v>0.2150720760615314</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5279265294468587</v>
+        <v>1.734449717417903</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.091489476366649</v>
+        <v>0.4472065384054531</v>
       </c>
       <c r="O10">
-        <v>1.868322850938313</v>
+        <v>1.409784420842897</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5093870392788062</v>
+        <v>1.632058690154508</v>
       </c>
       <c r="C11">
-        <v>0.1008910610760836</v>
+        <v>0.3160266076017137</v>
       </c>
       <c r="D11">
-        <v>0.1155687003189456</v>
+        <v>0.3338867364501823</v>
       </c>
       <c r="E11">
-        <v>0.6785797199324151</v>
+        <v>2.402697629820779</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4157736793962101</v>
+        <v>0.4377926582350113</v>
       </c>
       <c r="H11">
-        <v>0.5466941654632222</v>
+        <v>0.2836584717693853</v>
       </c>
       <c r="I11">
-        <v>0.4067916082161993</v>
+        <v>0.2191342507002965</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5648352243764236</v>
+        <v>1.858865744307053</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.082649590442742</v>
+        <v>0.4258641836691393</v>
       </c>
       <c r="O11">
-        <v>1.872697764035024</v>
+        <v>1.47362696239054</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5217089699976611</v>
+        <v>1.673812804064141</v>
       </c>
       <c r="C12">
-        <v>0.1031682681253585</v>
+        <v>0.3237552877426992</v>
       </c>
       <c r="D12">
-        <v>0.1179841176539895</v>
+        <v>0.3427892128736971</v>
       </c>
       <c r="E12">
-        <v>0.6956819536012802</v>
+        <v>2.472238710503206</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.416964218192021</v>
+        <v>0.4468861406538736</v>
       </c>
       <c r="H12">
-        <v>0.5463377945005163</v>
+        <v>0.2862936758957773</v>
       </c>
       <c r="I12">
-        <v>0.4062544624496525</v>
+        <v>0.2207995948305275</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5788008719985385</v>
+        <v>1.906113223496874</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.079366001163599</v>
+        <v>0.4179560435340051</v>
       </c>
       <c r="O12">
-        <v>1.8745402102154</v>
+        <v>1.498521161287584</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5190554706768467</v>
+        <v>1.664815105324607</v>
       </c>
       <c r="C13">
-        <v>0.102678004780671</v>
+        <v>0.3220893797955284</v>
       </c>
       <c r="D13">
-        <v>0.1174636907006175</v>
+        <v>0.3408695053507245</v>
       </c>
       <c r="E13">
-        <v>0.6919976794771259</v>
+        <v>2.457220313881308</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.416705660272811</v>
+        <v>0.4449174381077654</v>
       </c>
       <c r="H13">
-        <v>0.5464127477664391</v>
+        <v>0.2857207022565831</v>
       </c>
       <c r="I13">
-        <v>0.4063684424077145</v>
+        <v>0.2204351075652156</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.57579361175965</v>
+        <v>1.895931261305861</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.080070338256949</v>
+        <v>0.4196513193902529</v>
       </c>
       <c r="O13">
-        <v>1.874135136889606</v>
+        <v>1.493126675872418</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5104008833412195</v>
+        <v>1.635491512606336</v>
       </c>
       <c r="C14">
-        <v>0.1010784865925132</v>
+        <v>0.3166618294357022</v>
       </c>
       <c r="D14">
-        <v>0.1157673173435683</v>
+        <v>0.3346180770523262</v>
       </c>
       <c r="E14">
-        <v>0.6799862817011757</v>
+        <v>2.408400339447908</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4158706553612461</v>
+        <v>0.4385361961007277</v>
       </c>
       <c r="H14">
-        <v>0.5466640366066429</v>
+        <v>0.2838728372185102</v>
       </c>
       <c r="I14">
-        <v>0.4067466491841145</v>
+        <v>0.2192686504418582</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5659844075042031</v>
+        <v>1.862749990311073</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.082378166762725</v>
+        <v>0.4252100381051545</v>
       </c>
       <c r="O14">
-        <v>1.872845617455823</v>
+        <v>1.475660222953167</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5050989787829394</v>
+        <v>1.617544838382003</v>
       </c>
       <c r="C15">
-        <v>0.1000982268784014</v>
+        <v>0.3133412899009613</v>
       </c>
       <c r="D15">
-        <v>0.1147288950195531</v>
+        <v>0.3307958075360915</v>
       </c>
       <c r="E15">
-        <v>0.6726318613147555</v>
+        <v>2.378615645475691</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4153654947018168</v>
+        <v>0.434657139059496</v>
       </c>
       <c r="H15">
-        <v>0.5468232215106354</v>
+        <v>0.2827567080418874</v>
       </c>
       <c r="I15">
-        <v>0.4069832997710954</v>
+        <v>0.2185710327896935</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5599745551974138</v>
+        <v>1.842443708088837</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.083800100433917</v>
+        <v>0.4286378297621223</v>
       </c>
       <c r="O15">
-        <v>1.87207995569787</v>
+        <v>1.465057149626119</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.474705267789119</v>
+        <v>1.514912101957606</v>
       </c>
       <c r="C16">
-        <v>0.09447298801630666</v>
+        <v>0.2943694025525474</v>
       </c>
       <c r="D16">
-        <v>0.1087881860797211</v>
+        <v>0.3089928307423122</v>
       </c>
       <c r="E16">
-        <v>0.6305300428183358</v>
+        <v>2.209647834855858</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4125670920681017</v>
+        <v>0.4128649169667824</v>
       </c>
       <c r="H16">
-        <v>0.5478161009098557</v>
+        <v>0.2765944337191968</v>
       </c>
       <c r="I16">
-        <v>0.408415835339305</v>
+        <v>0.2148238069314736</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5255129658966382</v>
+        <v>1.726336162861315</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.092076118668656</v>
+        <v>0.448625100841447</v>
       </c>
       <c r="O16">
-        <v>1.868062908135869</v>
+        <v>1.405708938021291</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4560506464667355</v>
+        <v>1.45212339963507</v>
       </c>
       <c r="C17">
-        <v>0.09101518779843332</v>
+        <v>0.2827768244325597</v>
       </c>
       <c r="D17">
-        <v>0.1051527658781737</v>
+        <v>0.2957021423261921</v>
       </c>
       <c r="E17">
-        <v>0.6047393872206044</v>
+        <v>2.107411585698799</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4109362766112383</v>
+        <v>0.3998680171784628</v>
       </c>
       <c r="H17">
-        <v>0.5484971530314198</v>
+        <v>0.2730148489786046</v>
       </c>
       <c r="I17">
-        <v>0.409362739115565</v>
+        <v>0.2127400777518744</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5043530817621331</v>
+        <v>1.655319086678929</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.097266882274919</v>
+        <v>0.4611859122088688</v>
       </c>
       <c r="O17">
-        <v>1.865928922730859</v>
+        <v>1.370507358218134</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4453178410987562</v>
+        <v>1.41606636252024</v>
       </c>
       <c r="C18">
-        <v>0.08902383016274484</v>
+        <v>0.2761242500926215</v>
       </c>
       <c r="D18">
-        <v>0.1030650909739279</v>
+        <v>0.2880867839917158</v>
       </c>
       <c r="E18">
-        <v>0.5899185425350879</v>
+        <v>2.049087602750177</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4100297815494827</v>
+        <v>0.3925222808843216</v>
       </c>
       <c r="H18">
-        <v>0.5489153118270877</v>
+        <v>0.2710267314828769</v>
       </c>
       <c r="I18">
-        <v>0.4099323674316473</v>
+        <v>0.211617348635972</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4921757277098777</v>
+        <v>1.614541708670714</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.100294227809028</v>
+        <v>0.4685175812985118</v>
       </c>
       <c r="O18">
-        <v>1.864822754279089</v>
+        <v>1.350682721145716</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4416833709607317</v>
+        <v>1.40386734629908</v>
       </c>
       <c r="C19">
-        <v>0.08834915866776782</v>
+        <v>0.2738742477147582</v>
       </c>
       <c r="D19">
-        <v>0.1023588117934366</v>
+        <v>0.2855131628692362</v>
       </c>
       <c r="E19">
-        <v>0.5849026886857018</v>
+        <v>2.029418637043534</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4097282629532231</v>
+        <v>0.3900567851445658</v>
       </c>
       <c r="H19">
-        <v>0.5490614329226418</v>
+        <v>0.2703654656422145</v>
       </c>
       <c r="I19">
-        <v>0.4101295239011371</v>
+        <v>0.2112499264338261</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4880515416024878</v>
+        <v>1.600746454144939</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.101326404056097</v>
+        <v>0.4710180668376918</v>
       </c>
       <c r="O19">
-        <v>1.864469033524017</v>
+        <v>1.34404104946114</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4580367937053893</v>
+        <v>1.458801289302698</v>
       </c>
       <c r="C20">
-        <v>0.09138353788250697</v>
+        <v>0.2840092656032311</v>
       </c>
       <c r="D20">
-        <v>0.1055394189225609</v>
+        <v>0.2971139025088405</v>
       </c>
       <c r="E20">
-        <v>0.6074834630451704</v>
+        <v>2.118244248876238</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4111066173648794</v>
+        <v>0.4012379791597738</v>
       </c>
       <c r="H20">
-        <v>0.5484219177290015</v>
+        <v>0.2733885115026027</v>
       </c>
       <c r="I20">
-        <v>0.409259352133958</v>
+        <v>0.2129539797551985</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5066062897310246</v>
+        <v>1.662871583104589</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.096709994479404</v>
+        <v>0.4598376506276125</v>
       </c>
       <c r="O20">
-        <v>1.866143537339354</v>
+        <v>1.374210448039292</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5129430964077528</v>
+        <v>1.644101425051076</v>
       </c>
       <c r="C21">
-        <v>0.1015484099287391</v>
+        <v>0.3182551898774477</v>
       </c>
       <c r="D21">
-        <v>0.1162654468073612</v>
+        <v>0.3364528206473807</v>
       </c>
       <c r="E21">
-        <v>0.6835137116397902</v>
+        <v>2.422714897398819</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4161146024372187</v>
+        <v>0.440404303097722</v>
       </c>
       <c r="H21">
-        <v>0.5465891300906378</v>
+        <v>0.2844123012411899</v>
       </c>
       <c r="I21">
-        <v>0.4066345210296411</v>
+        <v>0.2196077316437339</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5688659078102489</v>
+        <v>1.872492292544337</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.081698567121339</v>
+        <v>0.4235725143520046</v>
       </c>
       <c r="O21">
-        <v>1.873219335163952</v>
+        <v>1.480770486523653</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5487957757808886</v>
+        <v>1.765854274081278</v>
       </c>
       <c r="C22">
-        <v>0.1081690100076571</v>
+        <v>0.3408107193172043</v>
       </c>
       <c r="D22">
-        <v>0.1233048862572446</v>
+        <v>0.3624668034803307</v>
       </c>
       <c r="E22">
-        <v>0.7333326544318766</v>
+        <v>2.626911713820888</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4196695822985674</v>
+        <v>0.4673092758459632</v>
       </c>
       <c r="H22">
-        <v>0.5456268489961644</v>
+        <v>0.2923132777720667</v>
       </c>
       <c r="I22">
-        <v>0.4051422175224708</v>
+        <v>0.2247025274729921</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6094925453009239</v>
+        <v>2.010284867168565</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.072260135428284</v>
+        <v>0.4008887336991105</v>
       </c>
       <c r="O22">
-        <v>1.878926765900189</v>
+        <v>1.554636332981687</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5296636074293133</v>
+        <v>1.70080610527819</v>
       </c>
       <c r="C23">
-        <v>0.1046375640716803</v>
+        <v>0.3287545049756773</v>
       </c>
       <c r="D23">
-        <v>0.1195451296106</v>
+        <v>0.3485525962456961</v>
       </c>
       <c r="E23">
-        <v>0.7067310425767346</v>
+        <v>2.517402813370438</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.417746354010859</v>
+        <v>0.4528221771861212</v>
       </c>
       <c r="H23">
-        <v>0.5461188763742939</v>
+        <v>0.2880292925137127</v>
       </c>
       <c r="I23">
-        <v>0.405918238125107</v>
+        <v>0.2219114271720741</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5878153363311753</v>
+        <v>1.936660967470118</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.077263500650087</v>
+        <v>0.4128991135768558</v>
       </c>
       <c r="O23">
-        <v>1.875781347768452</v>
+        <v>1.51480281101351</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4571388814648856</v>
+        <v>1.455782089079264</v>
       </c>
       <c r="C24">
-        <v>0.09121701746684607</v>
+        <v>0.2834520415090651</v>
       </c>
       <c r="D24">
-        <v>0.1053646056772379</v>
+        <v>0.2964755663630996</v>
       </c>
       <c r="E24">
-        <v>0.6062428461189882</v>
+        <v>2.113345400811426</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4110295095037344</v>
+        <v>0.4006182274177377</v>
       </c>
       <c r="H24">
-        <v>0.5484558487100486</v>
+        <v>0.2732193618708578</v>
       </c>
       <c r="I24">
-        <v>0.409306014769605</v>
+        <v>0.2128570410891939</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5055876525433405</v>
+        <v>1.659456941572188</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.096961629178749</v>
+        <v>0.4604468568528599</v>
       </c>
       <c r="O24">
-        <v>1.86604613416452</v>
+        <v>1.372534999002227</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3787902538665548</v>
+        <v>1.193610799086883</v>
       </c>
       <c r="C25">
-        <v>0.07664445876912396</v>
+        <v>0.2351479711041264</v>
       </c>
       <c r="D25">
-        <v>0.09019571578306795</v>
+        <v>0.241392140628804</v>
       </c>
       <c r="E25">
-        <v>0.4983502696562567</v>
+        <v>1.695423061696829</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4049879914126961</v>
+        <v>0.349194509089898</v>
       </c>
       <c r="H25">
-        <v>0.5519872491312867</v>
+        <v>0.2599180135340475</v>
       </c>
       <c r="I25">
-        <v>0.4139155030351027</v>
+        <v>0.2059527872160984</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4166355566712241</v>
+        <v>1.363032642519102</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.119805387275221</v>
+        <v>0.5157947021367004</v>
       </c>
       <c r="O25">
-        <v>1.860178425091277</v>
+        <v>1.23500200590513</v>
       </c>
     </row>
   </sheetData>
